--- a/ApolloQA/Data/RatingManual/SC/VA00059.IncreasedSplitLimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00059.IncreasedSplitLimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.IncreasedSplitLimitFactors" sheetId="1" r:id="R931f71a6056f4c90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00059.IncreasedSplitLimitFactors" sheetId="1" r:id="Rfab606dd84c944a0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28156,6 +28156,32 @@
         <x:v>10,000</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$15,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$30,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9850</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>All Other Trucks - Tow</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>All Other</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10,000</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$20,000</x:v>
       </x:c>
       <x:c t="str">
